--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Woche</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>Abschlussarbeiten</t>
+  </si>
+  <si>
+    <t>Sonstiges</t>
+  </si>
+  <si>
+    <t>Ferien Betreuer</t>
+  </si>
+  <si>
+    <t>Ferien Experte</t>
   </si>
 </sst>
 </file>
@@ -448,19 +457,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -476,8 +486,11 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>17</v>
       </c>
@@ -491,15 +504,17 @@
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>18</v>
       </c>
@@ -511,8 +526,9 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>19</v>
       </c>
@@ -524,8 +540,11 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>20</v>
       </c>
@@ -537,8 +556,9 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>21</v>
       </c>
@@ -550,8 +570,9 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>22</v>
       </c>
@@ -563,8 +584,9 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>23</v>
       </c>
@@ -576,8 +598,9 @@
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>24</v>
       </c>
@@ -589,8 +612,9 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>25</v>
       </c>
@@ -602,8 +626,9 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>26</v>
       </c>
@@ -615,8 +640,11 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>27</v>
       </c>
@@ -628,8 +656,9 @@
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>28</v>
       </c>
@@ -641,8 +670,9 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>29</v>
       </c>
@@ -654,8 +684,9 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>30</v>
       </c>
@@ -667,8 +698,11 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>31</v>
       </c>
@@ -680,8 +714,9 @@
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>32</v>
       </c>
@@ -693,8 +728,9 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>33</v>
       </c>
@@ -706,8 +742,9 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>34</v>
       </c>
@@ -719,8 +756,9 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>35</v>
       </c>
@@ -732,8 +770,9 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>36</v>
       </c>
@@ -745,8 +784,9 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>37</v>
       </c>
@@ -758,8 +798,11 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>38</v>
       </c>
@@ -769,8 +812,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="5"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -782,8 +826,9 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>COUNT(A2:A24)</f>
         <v>22</v>
@@ -798,6 +843,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Woche</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Sprint 5, Aspekt 5 angehen</t>
   </si>
   <si>
-    <t>Sprint 6, Aspekt 6 angehen</t>
-  </si>
-  <si>
     <t>Abschlussarbeiten</t>
   </si>
   <si>
@@ -84,6 +81,12 @@
   </si>
   <si>
     <t>Ferien Experte</t>
+  </si>
+  <si>
+    <t>Kickoff, Workspace aufsetzen</t>
+  </si>
+  <si>
+    <t>Abstract, Projektantrag, Planung</t>
   </si>
 </sst>
 </file>
@@ -457,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -507,49 +510,55 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="5">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41392</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>41392</v>
+        <v>41399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>41399</v>
+        <v>41406</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="6">
-        <v>41406</v>
+        <v>41413</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>11</v>
@@ -558,15 +567,15 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>41413</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>41420</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="1"/>
@@ -574,10 +583,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>41420</v>
+        <v>41427</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -588,13 +597,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>41427</v>
+        <v>41434</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="1"/>
@@ -602,10 +611,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>41434</v>
+        <v>41441</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -616,43 +625,43 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>41441</v>
+        <v>41448</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>41448</v>
+        <v>41455</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6">
-        <v>41455</v>
+        <v>41462</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="1"/>
@@ -660,10 +669,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="6">
-        <v>41462</v>
+        <v>41469</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
@@ -674,43 +683,43 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="6">
-        <v>41469</v>
+        <v>41476</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="6">
-        <v>41476</v>
+        <v>41483</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="6">
-        <v>41483</v>
+        <v>41490</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="1"/>
@@ -718,10 +727,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="6">
-        <v>41490</v>
+        <v>41497</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -732,13 +741,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="6">
-        <v>41497</v>
+        <v>41504</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="1"/>
@@ -746,10 +755,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="6">
-        <v>41504</v>
+        <v>41511</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>6</v>
@@ -760,13 +769,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="6">
-        <v>41511</v>
+        <v>41518</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="1"/>
@@ -774,76 +783,62 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="6">
-        <v>41518</v>
+        <v>41525</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6">
-        <v>41525</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>41532</v>
+      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>38</v>
-      </c>
-      <c r="B24" s="6">
-        <v>41532</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
+      <c r="A25" s="1">
+        <f>COUNT(A2:A23)</f>
+        <v>22</v>
+      </c>
+      <c r="B25" s="1">
+        <f>A25-2</f>
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <f>360/B25</f>
+        <v>18</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f>COUNT(A2:A24)</f>
-        <v>22</v>
-      </c>
-      <c r="B26" s="1">
-        <f>A26-2</f>
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <f>360/B26</f>
-        <v>18</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Woche</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Abstract, Projektantrag, Planung</t>
+  </si>
+  <si>
+    <t>Ferien Experte, MIRO: 20.6. - 23.6. abwesend</t>
+  </si>
+  <si>
+    <t>MIRO: 18.7. - 21.7. abwesend</t>
   </si>
 </sst>
 </file>
@@ -463,14 +469,14 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -636,7 +642,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -679,7 +685,9 @@
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Woche</t>
   </si>
@@ -34,13 +34,7 @@
     <t>in Arbeit</t>
   </si>
   <si>
-    <t>Aufwand</t>
-  </si>
-  <si>
     <t>Ferien</t>
-  </si>
-  <si>
-    <t>Datum Start Sonntag</t>
   </si>
   <si>
     <t>Wochen</t>
@@ -93,6 +87,18 @@
   </si>
   <si>
     <t>MIRO: 18.7. - 21.7. abwesend</t>
+  </si>
+  <si>
+    <t>geplanter Zeitaufwand in h</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>tatsächlicher Zeitaufwand in h</t>
+  </si>
+  <si>
+    <t>Datum Start Montag</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -147,11 +153,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +287,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -466,25 +602,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -493,360 +632,460 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>17</v>
       </c>
       <c r="B2" s="6">
-        <v>41385</v>
+        <v>41386</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>18</v>
       </c>
       <c r="B3" s="6">
-        <v>41392</v>
+        <v>41393</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>19</v>
       </c>
       <c r="B4" s="6">
-        <v>41399</v>
+        <v>41400</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>20</v>
       </c>
       <c r="B5" s="6">
-        <v>41406</v>
+        <v>41407</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
       <c r="B6" s="6">
-        <v>41413</v>
+        <v>41414</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
       <c r="B7" s="6">
-        <v>41420</v>
+        <v>41421</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>18</v>
+      </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>23</v>
       </c>
       <c r="B8" s="6">
-        <v>41427</v>
+        <v>41428</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>18</v>
+      </c>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>24</v>
       </c>
       <c r="B9" s="6">
-        <v>41434</v>
+        <v>41435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>18</v>
+      </c>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>25</v>
       </c>
       <c r="B10" s="6">
-        <v>41441</v>
+        <v>41442</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>27</v>
+      </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>41448</v>
+        <v>41449</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>27</v>
       </c>
       <c r="B12" s="6">
-        <v>41455</v>
+        <v>41456</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>18</v>
+      </c>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>28</v>
       </c>
       <c r="B13" s="6">
-        <v>41462</v>
+        <v>41463</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>18</v>
+      </c>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>29</v>
       </c>
       <c r="B14" s="6">
-        <v>41469</v>
+        <v>41470</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>30</v>
       </c>
       <c r="B15" s="6">
-        <v>41476</v>
+        <v>41477</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="1">
+        <v>27</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>31</v>
       </c>
       <c r="B16" s="6">
-        <v>41483</v>
+        <v>41484</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1">
+        <v>18</v>
+      </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>32</v>
       </c>
       <c r="B17" s="6">
-        <v>41490</v>
+        <v>41491</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1">
+        <v>18</v>
+      </c>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>33</v>
       </c>
       <c r="B18" s="6">
-        <v>41497</v>
+        <v>41498</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1">
+        <v>18</v>
+      </c>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>34</v>
       </c>
       <c r="B19" s="6">
-        <v>41504</v>
+        <v>41505</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>35</v>
       </c>
       <c r="B20" s="6">
-        <v>41511</v>
+        <v>41512</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>36</v>
       </c>
       <c r="B21" s="6">
-        <v>41518</v>
+        <v>41519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1">
+        <v>18</v>
+      </c>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>37</v>
       </c>
       <c r="B22" s="6">
-        <v>41525</v>
+        <v>41526</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="5"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="E22" s="1">
+        <v>18</v>
+      </c>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>38</v>
       </c>
-      <c r="B23" s="6">
-        <v>41532</v>
-      </c>
-      <c r="C23" s="1"/>
+      <c r="B23" s="9">
+        <v>41533</v>
+      </c>
+      <c r="C23" s="10"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="D24" s="7"/>
+      <c r="E24" s="1">
+        <f>SUM(E2:E23)</f>
+        <v>360</v>
+      </c>
+      <c r="F24" s="1">
+        <f>SUM(F2:F23)</f>
+        <v>87</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14">
         <f>COUNT(A2:A23)</f>
         <v>22</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="15">
         <f>A25-2</f>
         <v>20</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="16">
         <f>360/B25</f>
         <v>18</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1">
+        <f>AVERAGE(F2:F23)</f>
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Woche</t>
   </si>
@@ -83,12 +83,6 @@
     <t>Abstract, Projektantrag, Planung</t>
   </si>
   <si>
-    <t>Ferien Experte, MIRO: 20.6. - 23.6. abwesend</t>
-  </si>
-  <si>
-    <t>MIRO: 18.7. - 21.7. abwesend</t>
-  </si>
-  <si>
     <t>geplanter Zeitaufwand in h</t>
   </si>
   <si>
@@ -99,6 +93,18 @@
   </si>
   <si>
     <t>Datum Start Montag</t>
+  </si>
+  <si>
+    <t>Ferien MIRO: 18.7. - 21.7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferien Experte, MIRO: 20.6. - 23.6. </t>
+  </si>
+  <si>
+    <t>Ferien Betreuer: 26.7.-30.7., 2.8.</t>
+  </si>
+  <si>
+    <t>Ferien Betreuer: 19.8-23.8.</t>
   </si>
 </sst>
 </file>
@@ -605,7 +611,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -632,10 +638,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>16</v>
@@ -652,7 +658,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>18</v>
@@ -673,7 +679,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>18</v>
@@ -694,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>
@@ -717,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>18</v>
@@ -738,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>18</v>
@@ -834,7 +840,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,7 +893,7 @@
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -924,7 +930,9 @@
         <v>18</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
@@ -992,7 +1000,9 @@
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5">

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Woche</t>
   </si>
@@ -98,13 +98,13 @@
     <t>Ferien MIRO: 18.7. - 21.7.</t>
   </si>
   <si>
-    <t xml:space="preserve">Ferien Experte, MIRO: 20.6. - 23.6. </t>
-  </si>
-  <si>
     <t>Ferien Betreuer: 26.7.-30.7., 2.8.</t>
   </si>
   <si>
     <t>Ferien Betreuer: 19.8-23.8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferien MIRO: 20.6. - 23.6. </t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,10 +819,12 @@
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="1">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -836,11 +838,11 @@
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="1">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -931,7 +933,7 @@
       </c>
       <c r="F16" s="1"/>
       <c r="G16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1001,7 +1003,7 @@
       </c>
       <c r="F20" s="1"/>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Woche</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ferien MIRO: 20.6. - 23.6. </t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -608,23 +611,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,10 +648,13 @@
         <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>17</v>
       </c>
@@ -666,9 +673,13 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <f>F2-E2</f>
+        <v>-2</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>18</v>
       </c>
@@ -687,9 +698,13 @@
       <c r="F3" s="1">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G23" si="0">F3-E3</f>
+        <v>-7</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>19</v>
       </c>
@@ -708,11 +723,15 @@
       <c r="F4" s="1">
         <v>25</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>20</v>
       </c>
@@ -731,9 +750,13 @@
       <c r="F5" s="1">
         <v>13</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -752,9 +775,13 @@
       <c r="F6" s="1">
         <v>22</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -770,10 +797,16 @@
       <c r="E7" s="1">
         <v>18</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>23</v>
       </c>
@@ -787,10 +820,16 @@
       <c r="E8" s="1">
         <v>18</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>19</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>24</v>
       </c>
@@ -804,10 +843,16 @@
       <c r="E9" s="1">
         <v>18</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>25</v>
       </c>
@@ -821,12 +866,18 @@
       <c r="E10" s="1">
         <v>9</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="1">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>26</v>
       </c>
@@ -840,12 +891,18 @@
       <c r="E11" s="1">
         <v>27</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>-10.5</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>27</v>
       </c>
@@ -859,10 +916,16 @@
       <c r="E12" s="1">
         <v>18</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>28</v>
       </c>
@@ -877,9 +940,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>29</v>
       </c>
@@ -894,11 +961,15 @@
         <v>9</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="1">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -913,11 +984,15 @@
         <v>27</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <f t="shared" si="0"/>
+        <v>-27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>31</v>
       </c>
@@ -932,11 +1007,15 @@
         <v>18</v>
       </c>
       <c r="F16" s="1"/>
-      <c r="G16" t="s">
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>32</v>
       </c>
@@ -951,9 +1030,13 @@
         <v>18</v>
       </c>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>33</v>
       </c>
@@ -968,9 +1051,13 @@
         <v>18</v>
       </c>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>34</v>
       </c>
@@ -985,9 +1072,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>35</v>
       </c>
@@ -1002,11 +1093,15 @@
         <v>0</v>
       </c>
       <c r="F20" s="1"/>
-      <c r="G20" t="s">
+      <c r="G20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>36</v>
       </c>
@@ -1021,9 +1116,13 @@
         <v>18</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>37</v>
       </c>
@@ -1038,11 +1137,15 @@
         <v>18</v>
       </c>
       <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>38</v>
       </c>
@@ -1055,9 +1158,13 @@
         <v>18</v>
       </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f t="shared" si="0"/>
+        <v>-18</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>6</v>
       </c>
@@ -1074,11 +1181,12 @@
       </c>
       <c r="F24" s="1">
         <f>SUM(F2:F23)</f>
-        <v>87</v>
+        <v>180.5</v>
       </c>
       <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <f>COUNT(A2:A23)</f>
         <v>22</v>
@@ -1095,9 +1203,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1">
         <f>AVERAGE(F2:F23)</f>
-        <v>17.399999999999999</v>
+        <v>16.40909090909091</v>
       </c>
       <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Woche</t>
   </si>
@@ -108,13 +108,16 @@
   </si>
   <si>
     <t>Diff</t>
+  </si>
+  <si>
+    <t>ABGABE Dokumentation/Anhänge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +129,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -310,6 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -611,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G23" si="0">F3-E3</f>
+        <f t="shared" ref="G3:G24" si="0">F3-E3</f>
         <v>-7</v>
       </c>
       <c r="H3" s="1"/>
@@ -756,7 +771,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -781,7 +796,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -1138,75 +1153,89 @@
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1">
-        <f t="shared" si="0"/>
+        <f>F22-E22</f>
         <v>-18</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="17">
+        <v>41529</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
         <v>38</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <v>41533</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="1">
-        <v>18</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1">
+      <c r="C24" s="10"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="1">
+        <v>18</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
         <f t="shared" si="0"/>
         <v>-18</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="1">
-        <f>SUM(E2:E23)</f>
+      <c r="D25" s="7"/>
+      <c r="E25" s="1">
+        <f>SUM(E2:E24)</f>
         <v>360</v>
       </c>
-      <c r="F24" s="1">
-        <f>SUM(F2:F23)</f>
+      <c r="F25" s="1">
+        <f>SUM(F2:F24)</f>
         <v>180.5</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <f>COUNT(A2:A23)</f>
-        <v>22</v>
-      </c>
-      <c r="B25" s="15">
-        <f>A25-2</f>
-        <v>20</v>
-      </c>
-      <c r="C25" s="16">
-        <f>360/B25</f>
-        <v>18</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <f>AVERAGE(F2:F23)</f>
-        <v>16.40909090909091</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <f>COUNT(A2:A24)</f>
+        <v>22</v>
+      </c>
+      <c r="B26" s="15">
+        <f>A26-2</f>
+        <v>20</v>
+      </c>
+      <c r="C26" s="16">
+        <f>360/B26</f>
+        <v>18</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <f>AVERAGE(F2:F24)</f>
+        <v>16.40909090909091</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12585" yWindow="-15" windowWidth="12630" windowHeight="12390"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,10 +954,12 @@
       <c r="E13" s="1">
         <v>18</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
       <c r="G13" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-2</v>
       </c>
       <c r="H13" s="1"/>
     </row>
@@ -1210,9 +1212,12 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>180.5</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>196.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f>SUM(G2:G24)</f>
+        <v>-163.5</v>
+      </c>
       <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1232,7 +1237,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.40909090909091</v>
+        <v>16.375</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12600" windowHeight="12405"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -629,7 +629,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,10 +977,12 @@
       <c r="E14" s="1">
         <v>9</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1">
+        <v>14.5</v>
+      </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>5.5</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>25</v>
@@ -1000,10 +1002,12 @@
       <c r="E15" s="1">
         <v>27</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>12</v>
+      </c>
       <c r="G15" s="1">
         <f t="shared" si="0"/>
-        <v>-27</v>
+        <v>-15</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>18</v>
@@ -1212,11 +1216,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>196.5</v>
+        <v>223</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-163.5</v>
+        <v>-137</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1237,7 +1241,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.375</v>
+        <v>15.928571428571429</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -1027,10 +1027,12 @@
       <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>21.5</v>
+      </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="s">
         <v>26</v>
@@ -1216,11 +1218,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>223</v>
+        <v>244.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-137</v>
+        <v>-115.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1241,7 +1243,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>15.928571428571429</v>
+        <v>16.3</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,10 +1052,12 @@
       <c r="E17" s="1">
         <v>18</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1">
+        <v>9</v>
+      </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>-9</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1218,11 +1220,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>244.5</v>
+        <v>253.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-115.5</v>
+        <v>-106.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1243,7 +1245,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.3</v>
+        <v>15.84375</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:XFD22"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,11 +1053,11 @@
         <v>18</v>
       </c>
       <c r="F17" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -1075,10 +1075,12 @@
       <c r="E18" s="1">
         <v>18</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1">
+        <v>27</v>
+      </c>
       <c r="G18" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1"/>
     </row>
@@ -1220,11 +1222,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>253.5</v>
+        <v>292.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-106.5</v>
+        <v>-67.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1245,7 +1247,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>15.84375</v>
+        <v>17.205882352941178</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,12 +1098,16 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -1123,9 +1127,6 @@
       <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1222,11 +1223,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>292.5</v>
+        <v>295.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-67.5</v>
+        <v>-64.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1247,7 +1248,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>17.205882352941178</v>
+        <v>16.416666666666668</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="12855"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6180"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1123,12 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1">
+        <v>24</v>
+      </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1223,11 +1225,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>295.5</v>
+        <v>319.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-64.5</v>
+        <v>-40.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1248,7 +1250,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.416666666666668</v>
+        <v>16.815789473684209</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6180"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="25230" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>Woche</t>
   </si>
@@ -31,9 +31,6 @@
 Kickoff Meeting vorbereiten</t>
   </si>
   <si>
-    <t>in Arbeit</t>
-  </si>
-  <si>
     <t>Ferien</t>
   </si>
   <si>
@@ -46,10 +43,6 @@
     <t>Stunden Aufwand pro Woche (360 h / Anzahl Wochen)</t>
   </si>
   <si>
-    <t>Auswertung bestehende Codebasis, Beurteilung wie kann was umgebaut werden,
-"Top-Aspekte" ermitteln und Strategie für Migration erarbeiten</t>
-  </si>
-  <si>
     <t>Sprint 1, Aspekt 1 angehen</t>
   </si>
   <si>
@@ -111,6 +104,9 @@
   </si>
   <si>
     <t>ABGABE Dokumentation/Anhänge</t>
+  </si>
+  <si>
+    <t>Aspektermittlung, Projekt-Setup</t>
   </si>
 </sst>
 </file>
@@ -628,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -657,16 +653,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -680,7 +676,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>18</v>
@@ -702,10 +698,10 @@
         <v>41393</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>18</v>
@@ -727,10 +723,10 @@
         <v>41400</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>18</v>
@@ -743,7 +739,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,10 +750,10 @@
         <v>41407</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1">
         <v>18</v>
@@ -771,7 +767,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>21</v>
       </c>
@@ -779,10 +775,10 @@
         <v>41414</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
         <v>18</v>
@@ -796,7 +792,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>22</v>
       </c>
@@ -804,10 +800,10 @@
         <v>41421</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="1">
         <v>18</v>
@@ -829,9 +825,11 @@
         <v>41428</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="1">
         <v>18</v>
       </c>
@@ -852,9 +850,11 @@
         <v>41435</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E9" s="1">
         <v>18</v>
       </c>
@@ -875,9 +875,11 @@
         <v>41442</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E10" s="1">
         <v>9</v>
       </c>
@@ -889,7 +891,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -900,9 +902,11 @@
         <v>41449</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="1">
         <v>27</v>
       </c>
@@ -914,7 +918,7 @@
         <v>-10.5</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,9 +929,11 @@
         <v>41456</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" s="1">
         <v>18</v>
       </c>
@@ -948,9 +954,11 @@
         <v>41463</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" s="1">
         <v>18</v>
       </c>
@@ -971,21 +979,23 @@
         <v>41470</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E14" s="1">
         <v>9</v>
       </c>
       <c r="F14" s="1">
-        <v>14.5</v>
+        <v>6.5</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>-2.5</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -996,9 +1006,11 @@
         <v>41477</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E15" s="1">
         <v>27</v>
       </c>
@@ -1010,7 +1022,7 @@
         <v>-15</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1021,9 +1033,11 @@
         <v>41484</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E16" s="1">
         <v>18</v>
       </c>
@@ -1035,7 +1049,7 @@
         <v>3.5</v>
       </c>
       <c r="H16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1046,9 +1060,11 @@
         <v>41491</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E17" s="1">
         <v>18</v>
       </c>
@@ -1069,9 +1085,11 @@
         <v>41498</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="E18" s="1">
         <v>18</v>
       </c>
@@ -1092,9 +1110,9 @@
         <v>41505</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1">
         <v>0</v>
       </c>
@@ -1106,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1117,9 +1135,9 @@
         <v>41512</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1">
         <v>0</v>
       </c>
@@ -1139,9 +1157,9 @@
         <v>41519</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="1"/>
       <c r="E21" s="1">
         <v>18</v>
       </c>
@@ -1160,7 +1178,7 @@
         <v>41526</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="1">
@@ -1172,7 +1190,7 @@
         <v>-18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1181,7 +1199,7 @@
         <v>41529</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
@@ -1210,13 +1228,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="1">
@@ -1225,11 +1243,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>319.5</v>
+        <v>311.5</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-40.5</v>
+        <v>-48.5</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1250,7 +1268,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.815789473684209</v>
+        <v>16.394736842105264</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="25230" windowHeight="6120"/>
+    <workbookView xWindow="-15" yWindow="105" windowWidth="25230" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,10 +1163,12 @@
       <c r="E21" s="1">
         <v>18</v>
       </c>
-      <c r="F21" s="1"/>
+      <c r="F21" s="1">
+        <v>38.5</v>
+      </c>
       <c r="G21" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>20.5</v>
       </c>
       <c r="H21" s="1"/>
     </row>
@@ -1204,7 +1206,10 @@
       <c r="D23" s="5"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <f>F23-E23</f>
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1243,11 +1248,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>311.5</v>
+        <v>350</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-48.5</v>
+        <v>-10</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1268,7 +1273,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>16.394736842105264</v>
+        <v>17.5</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>

--- a/Planung/Planung.xlsx
+++ b/Planung/Planung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="105" windowWidth="25230" windowHeight="6060"/>
+    <workbookView xWindow="-15" yWindow="165" windowWidth="25230" windowHeight="6000"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -624,8 +624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1186,10 +1186,12 @@
       <c r="E22" s="1">
         <v>18</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1">
+        <v>32</v>
+      </c>
       <c r="G22" s="1">
         <f>F22-E22</f>
-        <v>-18</v>
+        <v>14</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
@@ -1248,11 +1250,11 @@
       </c>
       <c r="F25" s="1">
         <f>SUM(F2:F24)</f>
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="G25" s="1">
         <f>SUM(G2:G24)</f>
-        <v>-10</v>
+        <v>22</v>
       </c>
       <c r="H25" s="1"/>
     </row>
@@ -1273,7 +1275,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1">
         <f>AVERAGE(F2:F24)</f>
-        <v>17.5</v>
+        <v>18.19047619047619</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
